--- a/experiment_10/summary_results.xlsx
+++ b/experiment_10/summary_results.xlsx
@@ -1,97 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/Documents/GitHub/kw_ina_extraction/experiment_10/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1400B8E-1D09-1E4B-A94A-13971EEC369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Excel File</t>
-  </si>
-  <si>
-    <t>top-10 + flex_recall</t>
-  </si>
-  <si>
-    <t>top-10 + flex_prec</t>
-  </si>
-  <si>
-    <t>top-10 + flex_F1</t>
-  </si>
-  <si>
-    <t>top-5 + flex_recall</t>
-  </si>
-  <si>
-    <t>top-5 + flex_prec</t>
-  </si>
-  <si>
-    <t>top-5 + flex_F1</t>
-  </si>
-  <si>
-    <t>top-3 + flex_recall</t>
-  </si>
-  <si>
-    <t>top-3 + flex_prec</t>
-  </si>
-  <si>
-    <t>top-3 + flex_F1</t>
-  </si>
-  <si>
-    <t>1_tr_phrase_countvectorizer.xlsx</t>
-  </si>
-  <si>
-    <t>2_tr_phrase_pos_pattern.xlsx</t>
-  </si>
-  <si>
-    <t>3_tr_posfilter.xlsx</t>
-  </si>
-  <si>
-    <t>4_tr_posfilter_posisi.xlsx</t>
-  </si>
-  <si>
-    <t>5_tr_weightscorephrases.xlsx</t>
-  </si>
-  <si>
-    <t>6_tr_tfidfscore.xlsx</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,249 +420,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Excel File</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>top-10 + flex_recall</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>top-10 + flex_prec</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>top-10 + flex_F1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>top-5 + flex_recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>top-5 + flex_prec</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>top-5 + flex_F1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>top-3 + flex_recall</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>top-3 + flex_prec</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>top-3 + flex_F1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.31751499999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.26144106797105882</v>
-      </c>
-      <c r="E2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0_tfidf_phrase_cv.xlsx</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.319525</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2236</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2630915166858458</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.200984</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2812000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2344196439533456</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.132704</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3092810000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1857204467300926</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1_tr_phrase_countvectorizer.xlsx</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.317515</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2222</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2614410679710588</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.189272</v>
       </c>
-      <c r="F2">
-        <v>0.26479999999999998</v>
-      </c>
-      <c r="G2">
+      <c r="F3" t="n">
+        <v>0.2648</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.2207545305590303</v>
       </c>
-      <c r="H2">
+      <c r="H3" t="n">
         <v>0.116116</v>
       </c>
-      <c r="I2">
+      <c r="I3" t="n">
         <v>0.270617</v>
       </c>
-      <c r="J2">
-        <v>0.16250469223986569</v>
+      <c r="J3" t="n">
+        <v>0.1625046922398657</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2_tr_phrase_pos_pattern.xlsx</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.190419</v>
       </c>
-      <c r="C3">
-        <v>0.13320000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.15675106096984409</v>
-      </c>
-      <c r="E3">
-        <v>9.8954999999999987E-2</v>
-      </c>
-      <c r="F3">
+      <c r="C4" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1567510609698441</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.09895499999999999</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.1384</v>
       </c>
-      <c r="G3">
-        <v>0.11539990309873389</v>
-      </c>
-      <c r="H3">
-        <v>6.1060999999999997E-2</v>
-      </c>
-      <c r="I3">
+      <c r="G4" t="n">
+        <v>0.1153999030987339</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.061061</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.142264</v>
       </c>
-      <c r="J3">
-        <v>8.5447260336899047E-2</v>
+      <c r="J4" t="n">
+        <v>0.08544726033689905</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0.18085999999999999</v>
-      </c>
-      <c r="C4">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3_tr_posfilter.xlsx</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.18086</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.1265</v>
       </c>
-      <c r="D4">
-        <v>0.14887291775117131</v>
-      </c>
-      <c r="E4">
-        <v>9.8240999999999981E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.13739999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.11456676384839649</v>
-      </c>
-      <c r="H4">
-        <v>5.8629999999999988E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.13658000000000001</v>
-      </c>
-      <c r="J4">
-        <v>8.2041754008503651E-2</v>
+      <c r="D5" t="n">
+        <v>0.1488729177511713</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09824099999999998</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1145667638483965</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.05862999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.13658</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.08204175400850365</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0.28042499999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.19620000000000001</v>
-      </c>
-      <c r="D5">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4_tr_posfilter_posisi.xlsx</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.280425</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1962</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.2308707474429583</v>
       </c>
-      <c r="E5">
-        <v>0.20186699999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.28239999999999998</v>
-      </c>
-      <c r="G5">
+      <c r="E6" t="n">
+        <v>0.201867</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2824</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.2354372311142407</v>
       </c>
-      <c r="H5">
+      <c r="H6" t="n">
         <v>0.138853</v>
       </c>
-      <c r="I5">
-        <v>0.32360100000000003</v>
-      </c>
-      <c r="J5">
-        <v>0.19432406100066171</v>
+      <c r="I6" t="n">
+        <v>0.323601</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1943240610006617</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0.26299499999999992</v>
-      </c>
-      <c r="C6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5_tr_weightscorephrases.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2629949999999999</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.184</v>
       </c>
-      <c r="D6">
+      <c r="D7" t="n">
         <v>0.2165173212228324</v>
       </c>
-      <c r="E6">
+      <c r="E7" t="n">
         <v>0.1575649999999999</v>
       </c>
-      <c r="F6">
-        <v>0.22040000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.18375948037516701</v>
-      </c>
-      <c r="H6">
-        <v>0.10009999999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.23325299999999999</v>
-      </c>
-      <c r="J6">
-        <v>0.14008348687427441</v>
+      <c r="F7" t="n">
+        <v>0.2204</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.183759480375167</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.233253</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1400834868742744</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0.26370599999999988</v>
-      </c>
-      <c r="C7">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6_tr_tfidfscore.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2637059999999999</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.1845</v>
       </c>
-      <c r="D7">
+      <c r="D8" t="n">
         <v>0.2171044430462778</v>
       </c>
-      <c r="E7">
-        <v>0.15856300000000001</v>
-      </c>
-      <c r="F7">
+      <c r="E8" t="n">
+        <v>0.158563</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.2218</v>
       </c>
-      <c r="G7">
-        <v>0.18492478711125951</v>
-      </c>
-      <c r="H7">
+      <c r="G8" t="n">
+        <v>0.1849247871112595</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.100672</v>
       </c>
-      <c r="I7">
-        <v>0.23458599999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.14088398661329479</v>
+      <c r="I8" t="n">
+        <v>0.234586</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1408839866132948</v>
       </c>
     </row>
   </sheetData>
